--- a/v5/other_exp/denoise/(orth)denoise_regression.xlsx
+++ b/v5/other_exp/denoise/(orth)denoise_regression.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\master\ensemble_github\analysis\analysis_data\(orth)_denoise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E7DAC65-DFE4-4429-9587-68817BC102F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55CC7C3D-D94C-4230-96D5-1EC3B1565A79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6560" yWindow="5110" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="137">
   <si>
     <t>dataname:task_type</t>
   </si>
@@ -40,6 +40,9 @@
     <t>orth-denoise-after-projection</t>
   </si>
   <si>
+    <t>orth-denoise-after-encoder-phase1</t>
+  </si>
+  <si>
     <t>california_housing:regression</t>
   </si>
   <si>
@@ -58,6 +61,9 @@
     <t>0.4781,(-0.14%:1)</t>
   </si>
   <si>
+    <t>0.4822,(0.73%:5)</t>
+  </si>
+  <si>
     <t>-</t>
   </si>
   <si>
@@ -76,6 +82,9 @@
     <t>0.4844,(-0.13%:3)</t>
   </si>
   <si>
+    <t>0.4934,(1.71%:5)</t>
+  </si>
+  <si>
     <t>FTTransformer</t>
   </si>
   <si>
@@ -91,6 +100,9 @@
     <t>0.4648,(0.16%:3)</t>
   </si>
   <si>
+    <t>0.4680,(0.86%:5)</t>
+  </si>
+  <si>
     <t>MLP</t>
   </si>
   <si>
@@ -106,25 +118,31 @@
     <t>0.4995,(-0.17%:1)</t>
   </si>
   <si>
+    <t>0.5051,(0.93%:5)</t>
+  </si>
+  <si>
     <t>ResNet</t>
   </si>
   <si>
-    <t>0.5186,(0.00%:4)</t>
-  </si>
-  <si>
-    <t>0.5155,(-0.59%:2)</t>
-  </si>
-  <si>
-    <t>0.5140,(-0.89%:1)</t>
-  </si>
-  <si>
-    <t>0.5158,(-0.54%:3)</t>
+    <t>0.5186,(0.00%:5)</t>
+  </si>
+  <si>
+    <t>0.5155,(-0.59%:3)</t>
+  </si>
+  <si>
+    <t>0.5140,(-0.89%:2)</t>
+  </si>
+  <si>
+    <t>0.5158,(-0.54%:4)</t>
+  </si>
+  <si>
+    <t>0.5128,(-1.12%:1)</t>
   </si>
   <si>
     <t>SNN</t>
   </si>
   <si>
-    <t>0.8749,(0.00%:4)</t>
+    <t>0.8749,(0.00%:5)</t>
   </si>
   <si>
     <t>0.7273,(-16.87%:3)</t>
@@ -136,21 +154,27 @@
     <t>0.7246,(-17.17%:2)</t>
   </si>
   <si>
+    <t>0.7483,(-14.47%:4)</t>
+  </si>
+  <si>
     <t>avg_rank</t>
   </si>
   <si>
-    <t>3.33</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>2.50</t>
+    <t>3.67</t>
   </si>
   <si>
     <t>2.17</t>
   </si>
   <si>
+    <t>2.67</t>
+  </si>
+  <si>
+    <t>2.33</t>
+  </si>
+  <si>
+    <t>4.17</t>
+  </si>
+  <si>
     <t>avg_percentage</t>
   </si>
   <si>
@@ -166,6 +190,9 @@
     <t>-3.00%</t>
   </si>
   <si>
+    <t>-1.89%</t>
+  </si>
+  <si>
     <t>diamonds:regression</t>
   </si>
   <si>
@@ -178,81 +205,99 @@
     <t>562.3598,(-0.55%:1)</t>
   </si>
   <si>
-    <t>601.0731,(6.29%:4)</t>
-  </si>
-  <si>
-    <t>604.1518,(0.00%:4)</t>
-  </si>
-  <si>
-    <t>594.8473,(-1.54%:2)</t>
-  </si>
-  <si>
-    <t>588.5818,(-2.58%:1)</t>
-  </si>
-  <si>
-    <t>598.9922,(-0.85%:3)</t>
-  </si>
-  <si>
-    <t>549.4801,(0.00%:3)</t>
+    <t>601.0731,(6.29%:5)</t>
+  </si>
+  <si>
+    <t>571.3767,(1.04%:4)</t>
+  </si>
+  <si>
+    <t>604.1518,(0.00%:5)</t>
+  </si>
+  <si>
+    <t>594.8473,(-1.54%:3)</t>
+  </si>
+  <si>
+    <t>588.5818,(-2.58%:2)</t>
+  </si>
+  <si>
+    <t>598.9922,(-0.85%:4)</t>
+  </si>
+  <si>
+    <t>571.7451,(-5.36%:1)</t>
+  </si>
+  <si>
+    <t>549.4801,(0.00%:4)</t>
   </si>
   <si>
     <t>541.8899,(-1.38%:1)</t>
   </si>
   <si>
-    <t>544.5173,(-0.90%:2)</t>
-  </si>
-  <si>
-    <t>551.4521,(0.36%:4)</t>
-  </si>
-  <si>
-    <t>561.6000,(0.00%:3)</t>
-  </si>
-  <si>
-    <t>561.7710,(0.03%:4)</t>
-  </si>
-  <si>
-    <t>561.3342,(-0.05%:2)</t>
-  </si>
-  <si>
-    <t>559.6895,(-0.34%:1)</t>
+    <t>544.5173,(-0.90%:3)</t>
+  </si>
+  <si>
+    <t>551.4521,(0.36%:5)</t>
+  </si>
+  <si>
+    <t>544.0272,(-0.99%:2)</t>
+  </si>
+  <si>
+    <t>561.6000,(0.00%:4)</t>
+  </si>
+  <si>
+    <t>561.7710,(0.03%:5)</t>
+  </si>
+  <si>
+    <t>561.3342,(-0.05%:3)</t>
+  </si>
+  <si>
+    <t>559.6895,(-0.34%:2)</t>
+  </si>
+  <si>
+    <t>559.5782,(-0.36%:1)</t>
   </si>
   <si>
     <t>605.0028,(0.00%:1)</t>
   </si>
   <si>
-    <t>617.0359,(1.99%:2)</t>
-  </si>
-  <si>
-    <t>642.2753,(6.16%:4)</t>
-  </si>
-  <si>
-    <t>636.4723,(5.20%:3)</t>
-  </si>
-  <si>
-    <t>1523.5922,(0.00%:4)</t>
-  </si>
-  <si>
-    <t>758.0215,(-50.25%:2)</t>
-  </si>
-  <si>
-    <t>724.5133,(-52.45%:1)</t>
-  </si>
-  <si>
-    <t>821.4396,(-46.09%:3)</t>
-  </si>
-  <si>
-    <t>2.83</t>
-  </si>
-  <si>
-    <t>2.33</t>
+    <t>617.0359,(1.99%:3)</t>
+  </si>
+  <si>
+    <t>642.2753,(6.16%:5)</t>
+  </si>
+  <si>
+    <t>636.4723,(5.20%:4)</t>
+  </si>
+  <si>
+    <t>615.3561,(1.71%:2)</t>
+  </si>
+  <si>
+    <t>1523.5922,(0.00%:5)</t>
+  </si>
+  <si>
+    <t>758.0215,(-50.25%:3)</t>
+  </si>
+  <si>
+    <t>724.5133,(-52.45%:2)</t>
+  </si>
+  <si>
+    <t>821.4396,(-46.09%:4)</t>
+  </si>
+  <si>
+    <t>720.5337,(-52.71%:1)</t>
+  </si>
+  <si>
+    <t>3.50</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>4.00</t>
   </si>
   <si>
     <t>1.83</t>
   </si>
   <si>
-    <t>3.00</t>
-  </si>
-  <si>
     <t>-8.42%</t>
   </si>
   <si>
@@ -262,31 +307,37 @@
     <t>-5.90%</t>
   </si>
   <si>
+    <t>-9.45%</t>
+  </si>
+  <si>
     <t>elevators:regression</t>
   </si>
   <si>
-    <t>0.0019,(0.00%:3)</t>
+    <t>0.0019,(0.00%:4)</t>
   </si>
   <si>
     <t>0.0019,(-0.71%:2)</t>
   </si>
   <si>
-    <t>0.0019,(0.72%:4)</t>
+    <t>0.0019,(0.72%:5)</t>
   </si>
   <si>
     <t>0.0019,(-0.78%:1)</t>
   </si>
   <si>
-    <t>0.0019,(-0.42%:1)</t>
-  </si>
-  <si>
-    <t>0.0019,(0.05%:4)</t>
-  </si>
-  <si>
-    <t>0.0019,(-0.31%:2)</t>
-  </si>
-  <si>
-    <t>0.0019,(0.00%:4)</t>
+    <t>0.0019,(-0.37%:3)</t>
+  </si>
+  <si>
+    <t>0.0019,(-0.42%:2)</t>
+  </si>
+  <si>
+    <t>0.0019,(0.05%:5)</t>
+  </si>
+  <si>
+    <t>0.0019,(-0.31%:3)</t>
+  </si>
+  <si>
+    <t>0.0019,(-0.49%:1)</t>
   </si>
   <si>
     <t>0.0019,(-1.11%:3)</t>
@@ -298,6 +349,9 @@
     <t>0.0019,(-1.61%:1)</t>
   </si>
   <si>
+    <t>0.0020,(3.41%:5)</t>
+  </si>
+  <si>
     <t>0.0020,(0.00%:4)</t>
   </si>
   <si>
@@ -310,10 +364,13 @@
     <t>0.0020,(-0.80%:1)</t>
   </si>
   <si>
-    <t>0.0021,(0.00%:4)</t>
-  </si>
-  <si>
-    <t>0.0020,(-1.46%:3)</t>
+    <t>0.0020,(0.18%:5)</t>
+  </si>
+  <si>
+    <t>0.0021,(0.00%:5)</t>
+  </si>
+  <si>
+    <t>0.0020,(-1.46%:4)</t>
   </si>
   <si>
     <t>0.0020,(-1.76%:2)</t>
@@ -322,22 +379,28 @@
     <t>0.0020,(-1.86%:1)</t>
   </si>
   <si>
-    <t>0.0030,(0.00%:4)</t>
-  </si>
-  <si>
-    <t>0.0026,(-11.28%:3)</t>
-  </si>
-  <si>
-    <t>0.0025,(-16.48%:1)</t>
-  </si>
-  <si>
-    <t>0.0025,(-14.92%:2)</t>
-  </si>
-  <si>
-    <t>3.67</t>
-  </si>
-  <si>
-    <t>1.33</t>
+    <t>0.0020,(-1.52%:3)</t>
+  </si>
+  <si>
+    <t>0.0030,(0.00%:5)</t>
+  </si>
+  <si>
+    <t>0.0026,(-11.28%:4)</t>
+  </si>
+  <si>
+    <t>0.0025,(-16.48%:2)</t>
+  </si>
+  <si>
+    <t>0.0025,(-14.92%:3)</t>
+  </si>
+  <si>
+    <t>0.0024,(-17.94%:1)</t>
+  </si>
+  <si>
+    <t>4.33</t>
+  </si>
+  <si>
+    <t>1.67</t>
   </si>
   <si>
     <t>-2.60%</t>
@@ -349,6 +412,9 @@
     <t>-3.38%</t>
   </si>
   <si>
+    <t>-2.79%</t>
+  </si>
+  <si>
     <t>total_avg_rank</t>
   </si>
   <si>
@@ -362,6 +428,9 @@
   </si>
   <si>
     <t>-4.09%</t>
+  </si>
+  <si>
+    <t>-4.71%</t>
   </si>
 </sst>
 </file>
@@ -747,10 +816,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26:F27"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -761,9 +830,10 @@
     <col min="4" max="4" width="22.1796875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="31.1796875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="34.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="39.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -782,525 +852,606 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="C10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="C11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="3" t="s">
+      <c r="C12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="C13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
         <v>33</v>
       </c>
-      <c r="C7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="C14" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
         <v>39</v>
       </c>
-      <c r="D8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="C15" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
         <v>45</v>
       </c>
-      <c r="E9" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="C16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16" t="s">
+        <v>89</v>
+      </c>
+      <c r="E16" t="s">
         <v>48</v>
       </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" s="3" t="s">
+      <c r="F16" t="s">
+        <v>90</v>
+      </c>
+      <c r="G16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
         <v>51</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="C17" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" t="s">
-        <v>65</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="D17" t="s">
+        <v>92</v>
+      </c>
+      <c r="E17" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17" t="s">
+        <v>94</v>
+      </c>
+      <c r="G17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>96</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" t="s">
+        <v>97</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" t="s">
+        <v>110</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" t="s">
         <v>33</v>
       </c>
-      <c r="C15" t="s">
-        <v>69</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" t="s">
-        <v>73</v>
-      </c>
-      <c r="D16" t="s">
-        <v>74</v>
-      </c>
-      <c r="E16" t="s">
-        <v>75</v>
-      </c>
-      <c r="F16" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" t="s">
-        <v>77</v>
-      </c>
-      <c r="E17" t="s">
-        <v>78</v>
-      </c>
-      <c r="F17" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>80</v>
-      </c>
-      <c r="B18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" t="s">
-        <v>81</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" t="s">
-        <v>81</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" t="s">
-        <v>88</v>
-      </c>
-      <c r="D20" s="3" t="s">
+      <c r="C22" t="s">
+        <v>115</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" t="s">
+        <v>120</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" t="s">
+        <v>125</v>
+      </c>
+      <c r="D24" t="s">
         <v>89</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" t="s">
-        <v>92</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" t="s">
-        <v>96</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>12</v>
-      </c>
-      <c r="B23" t="s">
-        <v>33</v>
-      </c>
-      <c r="C23" t="s">
-        <v>100</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" t="s">
-        <v>104</v>
-      </c>
-      <c r="D24" t="s">
-        <v>41</v>
-      </c>
       <c r="E24" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="F24" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+      <c r="G24" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B25" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C25" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D25" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="E25" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="F25" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+      <c r="G25" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B26" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="C26" s="4">
-        <v>3.2777777777777781</v>
+        <v>3.833333333333333</v>
       </c>
       <c r="D26" s="4">
-        <v>2.2777777777777781</v>
+        <v>2.7222222222222219</v>
       </c>
       <c r="E26" s="4">
-        <v>2.2777777777777781</v>
+        <v>2.7777777777777781</v>
       </c>
       <c r="F26" s="4">
-        <v>2.166666666666667</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2.666666666666667</v>
+      </c>
+      <c r="G26" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B27" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="C27" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D27" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="E27" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="F27" t="s">
-        <v>113</v>
+        <v>135</v>
+      </c>
+      <c r="G27" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
